--- a/pred_ohlcv/54/2019-10-19 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 KNC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>219</v>
       </c>
       <c r="F2" t="n">
-        <v>494.0361</v>
+        <v>581.6115</v>
       </c>
       <c r="G2" t="n">
-        <v>218.3666666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>219</v>
       </c>
       <c r="F3" t="n">
-        <v>228.7561</v>
+        <v>494.0361</v>
       </c>
       <c r="G3" t="n">
-        <v>218.4</v>
+        <v>218.3666666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" t="n">
         <v>219</v>
@@ -469,15 +480,18 @@
         <v>219</v>
       </c>
       <c r="E4" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>308.471</v>
+        <v>228.7561</v>
       </c>
       <c r="G4" t="n">
-        <v>218.4333333333333</v>
+        <v>218.4</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" t="n">
         <v>219</v>
@@ -495,15 +509,18 @@
         <v>219</v>
       </c>
       <c r="E5" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F5" t="n">
-        <v>31.7106</v>
+        <v>308.471</v>
       </c>
       <c r="G5" t="n">
-        <v>218.4666666666667</v>
+        <v>218.4333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F6" t="n">
-        <v>487.9231</v>
+        <v>31.7106</v>
       </c>
       <c r="G6" t="n">
-        <v>218.4833333333333</v>
+        <v>218.4666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F7" t="n">
-        <v>492.9237</v>
+        <v>487.9231</v>
       </c>
       <c r="G7" t="n">
-        <v>218.5166666666667</v>
+        <v>218.4833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>219</v>
       </c>
       <c r="F8" t="n">
-        <v>109.4175</v>
+        <v>492.9237</v>
       </c>
       <c r="G8" t="n">
-        <v>218.5333333333333</v>
+        <v>218.5166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F9" t="n">
-        <v>6863.532</v>
+        <v>109.4175</v>
       </c>
       <c r="G9" t="n">
-        <v>218.5166666666667</v>
+        <v>218.5333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" t="n">
-        <v>103.3729</v>
+        <v>6863.532</v>
       </c>
       <c r="G10" t="n">
         <v>218.5166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>103.3729</v>
       </c>
       <c r="G11" t="n">
-        <v>218.55</v>
+        <v>218.5166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D12" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>8207.306399999999</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>218.5166666666667</v>
+        <v>218.55</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C13" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
         <v>218</v>
       </c>
       <c r="E13" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" t="n">
-        <v>159.5412844036697</v>
+        <v>8207.306399999999</v>
       </c>
       <c r="G13" t="n">
         <v>218.5166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>217</v>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E14" t="n">
         <v>217</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>159.5412844036697</v>
       </c>
       <c r="G14" t="n">
-        <v>218.5</v>
+        <v>218.5166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>217</v>
       </c>
       <c r="C15" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
       </c>
       <c r="E15" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F15" t="n">
-        <v>736.8181</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>218.45</v>
+        <v>218.5</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>217</v>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
         <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
-        <v>127.0469</v>
+        <v>736.8181</v>
       </c>
       <c r="G16" t="n">
-        <v>218.4333333333333</v>
+        <v>218.45</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>217</v>
       </c>
       <c r="F17" t="n">
-        <v>2000</v>
+        <v>127.0469</v>
       </c>
       <c r="G17" t="n">
-        <v>218.4166666666667</v>
+        <v>218.4333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>217</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D18" t="n">
         <v>217</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F18" t="n">
-        <v>1186.1785</v>
+        <v>2000</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4</v>
+        <v>218.4166666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" t="n">
         <v>216</v>
       </c>
       <c r="D19" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E19" t="n">
         <v>216</v>
       </c>
       <c r="F19" t="n">
-        <v>1685.8719</v>
+        <v>1186.1785</v>
       </c>
       <c r="G19" t="n">
-        <v>218.35</v>
+        <v>218.4</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F20" t="n">
-        <v>3020</v>
+        <v>1685.8719</v>
       </c>
       <c r="G20" t="n">
         <v>218.35</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>3020</v>
       </c>
       <c r="G21" t="n">
-        <v>218.3333333333333</v>
+        <v>218.35</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>216</v>
       </c>
       <c r="F22" t="n">
-        <v>196.6372</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>218.3166666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>216</v>
       </c>
       <c r="F23" t="n">
-        <v>694.4919</v>
+        <v>196.6372</v>
       </c>
       <c r="G23" t="n">
-        <v>218.2833333333333</v>
+        <v>218.3166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>216</v>
       </c>
       <c r="F24" t="n">
-        <v>1041.7378</v>
+        <v>694.4919</v>
       </c>
       <c r="G24" t="n">
-        <v>218.3</v>
+        <v>218.2833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>216</v>
       </c>
       <c r="F25" t="n">
-        <v>174.4602</v>
+        <v>1041.7378</v>
       </c>
       <c r="G25" t="n">
         <v>218.3</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>216</v>
       </c>
       <c r="F26" t="n">
-        <v>300</v>
+        <v>174.4602</v>
       </c>
       <c r="G26" t="n">
-        <v>218.3166666666667</v>
+        <v>218.3</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>216</v>
       </c>
       <c r="C27" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" t="n">
         <v>216</v>
       </c>
       <c r="F27" t="n">
-        <v>802.4215</v>
+        <v>300</v>
       </c>
       <c r="G27" t="n">
         <v>218.3166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>216</v>
       </c>
       <c r="C28" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D28" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E28" t="n">
         <v>216</v>
       </c>
       <c r="F28" t="n">
-        <v>275.9999</v>
+        <v>802.4215</v>
       </c>
       <c r="G28" t="n">
-        <v>218.2666666666667</v>
+        <v>218.3166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>275.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>218.25</v>
+        <v>218.2666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>218</v>
       </c>
       <c r="C30" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D30" t="n">
         <v>218</v>
       </c>
       <c r="E30" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F30" t="n">
-        <v>7108.2347</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>218.2166666666667</v>
+        <v>218.25</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" t="n">
         <v>217</v>
@@ -1174,12 +1266,15 @@
         <v>217</v>
       </c>
       <c r="F31" t="n">
-        <v>4207.5688</v>
+        <v>7108.2347</v>
       </c>
       <c r="G31" t="n">
-        <v>218.1833333333333</v>
+        <v>218.2166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1194,18 +1289,21 @@
         <v>217</v>
       </c>
       <c r="D32" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E32" t="n">
         <v>217</v>
       </c>
       <c r="F32" t="n">
-        <v>393.5432</v>
+        <v>4207.5688</v>
       </c>
       <c r="G32" t="n">
-        <v>218.15</v>
+        <v>218.1833333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>217</v>
       </c>
       <c r="F33" t="n">
-        <v>450.0691</v>
+        <v>393.5432</v>
       </c>
       <c r="G33" t="n">
-        <v>218.1166666666667</v>
+        <v>218.15</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>217</v>
       </c>
       <c r="C34" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" t="n">
         <v>217</v>
       </c>
       <c r="F34" t="n">
-        <v>168.8315</v>
+        <v>450.0691</v>
       </c>
       <c r="G34" t="n">
-        <v>218.1</v>
+        <v>218.1166666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>217</v>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E35" t="n">
         <v>217</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>168.8315</v>
       </c>
       <c r="G35" t="n">
-        <v>218.0666666666667</v>
+        <v>218.1</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G36" t="n">
-        <v>218.0333333333333</v>
+        <v>218.0666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>1009.7399</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>218</v>
+        <v>218.0333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>217</v>
       </c>
       <c r="F38" t="n">
-        <v>1009.3133</v>
+        <v>1009.7399</v>
       </c>
       <c r="G38" t="n">
-        <v>217.9666666666667</v>
+        <v>218</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>217</v>
       </c>
       <c r="F39" t="n">
-        <v>9945.0785</v>
+        <v>1009.3133</v>
       </c>
       <c r="G39" t="n">
-        <v>217.95</v>
+        <v>217.9666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>217</v>
       </c>
       <c r="F40" t="n">
-        <v>180.395</v>
+        <v>9945.0785</v>
       </c>
       <c r="G40" t="n">
-        <v>217.9166666666667</v>
+        <v>217.95</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" t="n">
-        <v>25.5878</v>
+        <v>180.395</v>
       </c>
       <c r="G41" t="n">
-        <v>217.8833333333333</v>
+        <v>217.9166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>218</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>25.5878</v>
       </c>
       <c r="G42" t="n">
-        <v>217.85</v>
+        <v>217.8833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>218</v>
       </c>
       <c r="C43" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" t="n">
         <v>218</v>
       </c>
       <c r="F43" t="n">
-        <v>396.3389</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>217.8333333333333</v>
+        <v>217.85</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D44" t="n">
         <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F44" t="n">
-        <v>1093.2978</v>
+        <v>396.3389</v>
       </c>
       <c r="G44" t="n">
-        <v>217.8166666666667</v>
+        <v>217.8333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" t="n">
         <v>219</v>
       </c>
       <c r="E45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8944</v>
+        <v>1093.2978</v>
       </c>
       <c r="G45" t="n">
         <v>217.8166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" t="n">
-        <v>10.059</v>
+        <v>107.8944</v>
       </c>
       <c r="G46" t="n">
-        <v>217.8333333333333</v>
+        <v>217.8166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D47" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F47" t="n">
-        <v>3208.5919</v>
+        <v>10.059</v>
       </c>
       <c r="G47" t="n">
-        <v>217.8</v>
+        <v>217.8333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C48" t="n">
         <v>217</v>
       </c>
       <c r="D48" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E48" t="n">
         <v>217</v>
       </c>
       <c r="F48" t="n">
-        <v>10.0338</v>
+        <v>3208.5919</v>
       </c>
       <c r="G48" t="n">
-        <v>217.7833333333333</v>
+        <v>217.8</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>10.0338</v>
       </c>
       <c r="G49" t="n">
-        <v>217.75</v>
+        <v>217.7833333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1665,15 +1814,18 @@
         <v>218</v>
       </c>
       <c r="E50" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F50" t="n">
-        <v>972.6249</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>217.7166666666667</v>
+        <v>217.75</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1691,15 +1843,18 @@
         <v>218</v>
       </c>
       <c r="E51" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" t="n">
-        <v>2522.9356</v>
+        <v>972.6249</v>
       </c>
       <c r="G51" t="n">
-        <v>217.6833333333333</v>
+        <v>217.7166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>2522.9356</v>
       </c>
       <c r="G52" t="n">
         <v>217.6833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>219</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>217.6833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>219</v>
       </c>
       <c r="F54" t="n">
-        <v>509.0296</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>217.7</v>
+        <v>217.6833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>219</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9704</v>
+        <v>509.0296</v>
       </c>
       <c r="G55" t="n">
         <v>217.7</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>219</v>
       </c>
       <c r="F56" t="n">
-        <v>515</v>
+        <v>0.9704</v>
       </c>
       <c r="G56" t="n">
         <v>217.7</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>219</v>
       </c>
       <c r="C57" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D57" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" t="n">
         <v>219</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>515</v>
       </c>
       <c r="G57" t="n">
-        <v>217.7333333333333</v>
+        <v>217.7</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" t="n">
         <v>220</v>
@@ -1873,15 +2046,18 @@
         <v>220</v>
       </c>
       <c r="E58" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F58" t="n">
-        <v>2021.0001</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>217.75</v>
+        <v>217.7333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,7 +2069,7 @@
         <v>220</v>
       </c>
       <c r="C59" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D59" t="n">
         <v>220</v>
@@ -1902,12 +2078,15 @@
         <v>218</v>
       </c>
       <c r="F59" t="n">
-        <v>2611.8411</v>
+        <v>2021.0001</v>
       </c>
       <c r="G59" t="n">
-        <v>217.7333333333333</v>
+        <v>217.75</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C60" t="n">
         <v>218</v>
       </c>
       <c r="D60" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E60" t="n">
         <v>218</v>
       </c>
       <c r="F60" t="n">
-        <v>1239.1589</v>
+        <v>2611.8411</v>
       </c>
       <c r="G60" t="n">
-        <v>217.7166666666667</v>
+        <v>217.7333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C61" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E61" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F61" t="n">
-        <v>680.3704</v>
+        <v>1239.1589</v>
       </c>
       <c r="G61" t="n">
-        <v>217.6666666666667</v>
+        <v>217.7166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>217</v>
       </c>
       <c r="C62" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D62" t="n">
         <v>217</v>
       </c>
       <c r="E62" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F62" t="n">
-        <v>104.8425</v>
+        <v>680.3704</v>
       </c>
       <c r="G62" t="n">
-        <v>217.6333333333333</v>
+        <v>217.6666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F63" t="n">
-        <v>327.6782</v>
+        <v>104.8425</v>
       </c>
       <c r="G63" t="n">
         <v>217.6333333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F64" t="n">
-        <v>15</v>
+        <v>327.6782</v>
       </c>
       <c r="G64" t="n">
-        <v>217.65</v>
+        <v>217.6333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D65" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E65" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F65" t="n">
-        <v>219.9901</v>
+        <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>217.6333333333333</v>
+        <v>217.65</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C66" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" t="n">
         <v>219</v>
       </c>
       <c r="E66" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F66" t="n">
-        <v>2970.9776</v>
+        <v>219.9901</v>
       </c>
       <c r="G66" t="n">
-        <v>217.65</v>
+        <v>217.6333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>217</v>
       </c>
       <c r="C67" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D67" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E67" t="n">
         <v>216</v>
       </c>
       <c r="F67" t="n">
-        <v>907.725</v>
+        <v>2970.9776</v>
       </c>
       <c r="G67" t="n">
-        <v>217.6</v>
+        <v>217.65</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>907.725</v>
       </c>
       <c r="G68" t="n">
-        <v>217.5833333333333</v>
+        <v>217.6</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>218</v>
       </c>
       <c r="F69" t="n">
-        <v>1818</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>217.6</v>
+        <v>217.5833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F70" t="n">
-        <v>1698.0667</v>
+        <v>1818</v>
       </c>
       <c r="G70" t="n">
-        <v>217.5833333333333</v>
+        <v>217.6</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" t="n">
         <v>217</v>
       </c>
       <c r="D71" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E71" t="n">
         <v>217</v>
       </c>
       <c r="F71" t="n">
-        <v>503.8498</v>
+        <v>1698.0667</v>
       </c>
       <c r="G71" t="n">
-        <v>217.5333333333333</v>
+        <v>217.5833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>218</v>
       </c>
       <c r="C72" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" t="n">
         <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" t="n">
-        <v>2997</v>
+        <v>503.8498</v>
       </c>
       <c r="G72" t="n">
-        <v>217.5666666666667</v>
+        <v>217.5333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>538</v>
+        <v>2997</v>
       </c>
       <c r="G73" t="n">
         <v>217.5666666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>218</v>
       </c>
       <c r="F74" t="n">
-        <v>1018</v>
+        <v>538</v>
       </c>
       <c r="G74" t="n">
-        <v>217.5833333333333</v>
+        <v>217.5666666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>218</v>
       </c>
       <c r="C75" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" t="n">
         <v>218</v>
       </c>
       <c r="E75" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F75" t="n">
-        <v>2267.4445</v>
+        <v>1018</v>
       </c>
       <c r="G75" t="n">
-        <v>217.6</v>
+        <v>217.5833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>2267.4445</v>
       </c>
       <c r="G76" t="n">
-        <v>217.6333333333333</v>
+        <v>217.6</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F77" t="n">
-        <v>2086.2856</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>217.65</v>
+        <v>217.6333333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>2086.2856</v>
       </c>
       <c r="G78" t="n">
-        <v>217.7166666666667</v>
+        <v>217.65</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F79" t="n">
-        <v>1244</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>217.75</v>
+        <v>217.7166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>218</v>
       </c>
       <c r="F80" t="n">
-        <v>815.9517</v>
+        <v>1244</v>
       </c>
       <c r="G80" t="n">
-        <v>217.7666666666667</v>
+        <v>217.75</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>218</v>
       </c>
       <c r="F81" t="n">
-        <v>533</v>
+        <v>815.9517</v>
       </c>
       <c r="G81" t="n">
-        <v>217.8</v>
+        <v>217.7666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>218</v>
       </c>
       <c r="F82" t="n">
-        <v>648</v>
+        <v>533</v>
       </c>
       <c r="G82" t="n">
-        <v>217.8333333333333</v>
+        <v>217.8</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>648</v>
       </c>
       <c r="G83" t="n">
-        <v>217.9</v>
+        <v>217.8333333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F84" t="n">
-        <v>225.9226</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>217.9333333333333</v>
+        <v>217.9</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>218</v>
       </c>
       <c r="F85" t="n">
-        <v>1818</v>
+        <v>225.9226</v>
       </c>
       <c r="G85" t="n">
-        <v>217.9666666666667</v>
+        <v>217.9333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1818</v>
       </c>
       <c r="G86" t="n">
-        <v>218.0333333333333</v>
+        <v>217.9666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F87" t="n">
-        <v>408.3498</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
         <v>218.0333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F88" t="n">
-        <v>363.6653</v>
+        <v>408.3498</v>
       </c>
       <c r="G88" t="n">
-        <v>218.0833333333333</v>
+        <v>218.0333333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>219</v>
       </c>
       <c r="C89" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D89" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E89" t="n">
         <v>219</v>
       </c>
       <c r="F89" t="n">
-        <v>3824.355</v>
+        <v>363.6653</v>
       </c>
       <c r="G89" t="n">
-        <v>218.1166666666667</v>
+        <v>218.0833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" t="n">
         <v>220</v>
@@ -2708,12 +2977,15 @@
         <v>219</v>
       </c>
       <c r="F90" t="n">
-        <v>17714.203</v>
+        <v>3824.355</v>
       </c>
       <c r="G90" t="n">
-        <v>218.1666666666667</v>
+        <v>218.1166666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C91" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D91" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E91" t="n">
         <v>219</v>
       </c>
       <c r="F91" t="n">
-        <v>312.8253</v>
+        <v>17714.203</v>
       </c>
       <c r="G91" t="n">
-        <v>218.2</v>
+        <v>218.1666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>219</v>
       </c>
       <c r="F92" t="n">
-        <v>466</v>
+        <v>312.8253</v>
       </c>
       <c r="G92" t="n">
-        <v>218.2333333333333</v>
+        <v>218.2</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>219</v>
       </c>
       <c r="F93" t="n">
-        <v>296.9336</v>
+        <v>466</v>
       </c>
       <c r="G93" t="n">
-        <v>218.2666666666667</v>
+        <v>218.2333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>219</v>
       </c>
       <c r="F94" t="n">
-        <v>188.3432</v>
+        <v>296.9336</v>
       </c>
       <c r="G94" t="n">
-        <v>218.2833333333333</v>
+        <v>218.2666666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>219</v>
       </c>
       <c r="F95" t="n">
-        <v>159.2864</v>
+        <v>188.3432</v>
       </c>
       <c r="G95" t="n">
-        <v>218.3166666666667</v>
+        <v>218.2833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F96" t="n">
-        <v>1850</v>
+        <v>159.2864</v>
       </c>
       <c r="G96" t="n">
-        <v>218.35</v>
+        <v>218.3166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>220</v>
       </c>
       <c r="C97" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D97" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E97" t="n">
         <v>220</v>
       </c>
       <c r="F97" t="n">
-        <v>7446.9128</v>
+        <v>1850</v>
       </c>
       <c r="G97" t="n">
-        <v>218.4166666666667</v>
+        <v>218.35</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C98" t="n">
         <v>221</v>
       </c>
       <c r="D98" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E98" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F98" t="n">
-        <v>637</v>
+        <v>7446.9128</v>
       </c>
       <c r="G98" t="n">
-        <v>218.4833333333333</v>
+        <v>218.4166666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>221</v>
+      </c>
+      <c r="C99" t="n">
+        <v>221</v>
+      </c>
+      <c r="D99" t="n">
         <v>222</v>
       </c>
-      <c r="C99" t="n">
-        <v>226</v>
-      </c>
-      <c r="D99" t="n">
-        <v>227</v>
-      </c>
       <c r="E99" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F99" t="n">
-        <v>55597.9253</v>
+        <v>637</v>
       </c>
       <c r="G99" t="n">
-        <v>218.6333333333333</v>
+        <v>218.4833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C100" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D100" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E100" t="n">
         <v>222</v>
       </c>
       <c r="F100" t="n">
-        <v>1859.9999</v>
+        <v>55597.9253</v>
       </c>
       <c r="G100" t="n">
-        <v>218.7333333333333</v>
+        <v>218.6333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,25 +3284,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C101" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E101" t="n">
         <v>222</v>
       </c>
       <c r="F101" t="n">
-        <v>559.3546</v>
+        <v>1859.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>218.85</v>
+        <v>218.7333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C102" t="n">
         <v>225</v>
@@ -3017,16 +3322,19 @@
         <v>225</v>
       </c>
       <c r="E102" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F102" t="n">
-        <v>242</v>
+        <v>559.3546</v>
       </c>
       <c r="G102" t="n">
-        <v>218.9666666666667</v>
+        <v>218.85</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C103" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D103" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E103" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F103" t="n">
-        <v>1056.7978</v>
+        <v>242</v>
       </c>
       <c r="G103" t="n">
-        <v>219.0333333333333</v>
+        <v>218.9666666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,13 +3383,16 @@
         <v>223</v>
       </c>
       <c r="F104" t="n">
-        <v>175.6057</v>
+        <v>1056.7978</v>
       </c>
       <c r="G104" t="n">
-        <v>219.1333333333333</v>
+        <v>219.0333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" t="n">
         <v>223</v>
       </c>
       <c r="D105" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E105" t="n">
         <v>223</v>
       </c>
       <c r="F105" t="n">
-        <v>958.2474</v>
+        <v>175.6057</v>
       </c>
       <c r="G105" t="n">
-        <v>219.2</v>
+        <v>219.1333333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" t="n">
+        <v>223</v>
+      </c>
+      <c r="D106" t="n">
         <v>224</v>
       </c>
-      <c r="D106" t="n">
-        <v>226</v>
-      </c>
       <c r="E106" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F106" t="n">
-        <v>1067.6592</v>
+        <v>958.2474</v>
       </c>
       <c r="G106" t="n">
-        <v>219.2666666666667</v>
+        <v>219.2</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,544 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C107" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D107" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E107" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F107" t="n">
-        <v>3336.35</v>
+        <v>1067.6592</v>
       </c>
       <c r="G107" t="n">
-        <v>219.35</v>
+        <v>219.2666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>225</v>
-      </c>
-      <c r="C108" t="n">
-        <v>226</v>
-      </c>
-      <c r="D108" t="n">
-        <v>226</v>
-      </c>
-      <c r="E108" t="n">
-        <v>225</v>
-      </c>
-      <c r="F108" t="n">
-        <v>162</v>
-      </c>
-      <c r="G108" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>225</v>
-      </c>
-      <c r="C109" t="n">
-        <v>224</v>
-      </c>
-      <c r="D109" t="n">
-        <v>225</v>
-      </c>
-      <c r="E109" t="n">
-        <v>224</v>
-      </c>
-      <c r="F109" t="n">
-        <v>344</v>
-      </c>
-      <c r="G109" t="n">
-        <v>219.6</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>222</v>
-      </c>
-      <c r="C110" t="n">
-        <v>222</v>
-      </c>
-      <c r="D110" t="n">
-        <v>222</v>
-      </c>
-      <c r="E110" t="n">
-        <v>222</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1811.2245</v>
-      </c>
-      <c r="G110" t="n">
-        <v>219.6666666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>223</v>
-      </c>
-      <c r="C111" t="n">
-        <v>222</v>
-      </c>
-      <c r="D111" t="n">
-        <v>223</v>
-      </c>
-      <c r="E111" t="n">
-        <v>222</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2018.9561</v>
-      </c>
-      <c r="G111" t="n">
-        <v>219.7333333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>224</v>
-      </c>
-      <c r="C112" t="n">
-        <v>224</v>
-      </c>
-      <c r="D112" t="n">
-        <v>224</v>
-      </c>
-      <c r="E112" t="n">
-        <v>224</v>
-      </c>
-      <c r="F112" t="n">
-        <v>56.6444</v>
-      </c>
-      <c r="G112" t="n">
-        <v>219.8166666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>223</v>
-      </c>
-      <c r="C113" t="n">
-        <v>223</v>
-      </c>
-      <c r="D113" t="n">
-        <v>223</v>
-      </c>
-      <c r="E113" t="n">
-        <v>223</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3276.4977</v>
-      </c>
-      <c r="G113" t="n">
-        <v>219.8833333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>223</v>
-      </c>
-      <c r="C114" t="n">
-        <v>223</v>
-      </c>
-      <c r="D114" t="n">
-        <v>223</v>
-      </c>
-      <c r="E114" t="n">
-        <v>223</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3363.6412</v>
-      </c>
-      <c r="G114" t="n">
-        <v>219.95</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>223</v>
-      </c>
-      <c r="C115" t="n">
-        <v>222</v>
-      </c>
-      <c r="D115" t="n">
-        <v>223</v>
-      </c>
-      <c r="E115" t="n">
-        <v>222</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1224.49</v>
-      </c>
-      <c r="G115" t="n">
-        <v>220</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>222</v>
-      </c>
-      <c r="C116" t="n">
-        <v>222</v>
-      </c>
-      <c r="D116" t="n">
-        <v>223</v>
-      </c>
-      <c r="E116" t="n">
-        <v>222</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2155.8483</v>
-      </c>
-      <c r="G116" t="n">
-        <v>220.05</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>222</v>
-      </c>
-      <c r="C117" t="n">
-        <v>223</v>
-      </c>
-      <c r="D117" t="n">
-        <v>223</v>
-      </c>
-      <c r="E117" t="n">
-        <v>222</v>
-      </c>
-      <c r="F117" t="n">
-        <v>70</v>
-      </c>
-      <c r="G117" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>223</v>
-      </c>
-      <c r="C118" t="n">
-        <v>223</v>
-      </c>
-      <c r="D118" t="n">
-        <v>223</v>
-      </c>
-      <c r="E118" t="n">
-        <v>223</v>
-      </c>
-      <c r="F118" t="n">
-        <v>300</v>
-      </c>
-      <c r="G118" t="n">
-        <v>220.15</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>222</v>
-      </c>
-      <c r="C119" t="n">
-        <v>222</v>
-      </c>
-      <c r="D119" t="n">
-        <v>222</v>
-      </c>
-      <c r="E119" t="n">
-        <v>222</v>
-      </c>
-      <c r="F119" t="n">
-        <v>205.361</v>
-      </c>
-      <c r="G119" t="n">
-        <v>220.2166666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>222</v>
-      </c>
-      <c r="C120" t="n">
-        <v>222</v>
-      </c>
-      <c r="D120" t="n">
-        <v>222</v>
-      </c>
-      <c r="E120" t="n">
-        <v>222</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2415.7047</v>
-      </c>
-      <c r="G120" t="n">
-        <v>220.2833333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>223</v>
-      </c>
-      <c r="C121" t="n">
-        <v>223</v>
-      </c>
-      <c r="D121" t="n">
-        <v>226</v>
-      </c>
-      <c r="E121" t="n">
-        <v>222</v>
-      </c>
-      <c r="F121" t="n">
-        <v>751.2273</v>
-      </c>
-      <c r="G121" t="n">
-        <v>220.4</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>225</v>
-      </c>
-      <c r="C122" t="n">
-        <v>222</v>
-      </c>
-      <c r="D122" t="n">
-        <v>225</v>
-      </c>
-      <c r="E122" t="n">
-        <v>222</v>
-      </c>
-      <c r="F122" t="n">
-        <v>856.4036</v>
-      </c>
-      <c r="G122" t="n">
-        <v>220.4833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>222</v>
-      </c>
-      <c r="C123" t="n">
-        <v>222</v>
-      </c>
-      <c r="D123" t="n">
-        <v>222</v>
-      </c>
-      <c r="E123" t="n">
-        <v>222</v>
-      </c>
-      <c r="F123" t="n">
-        <v>221.5268</v>
-      </c>
-      <c r="G123" t="n">
-        <v>220.5333333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>221</v>
-      </c>
-      <c r="C124" t="n">
-        <v>221</v>
-      </c>
-      <c r="D124" t="n">
-        <v>221</v>
-      </c>
-      <c r="E124" t="n">
-        <v>221</v>
-      </c>
-      <c r="F124" t="n">
-        <v>296.7861</v>
-      </c>
-      <c r="G124" t="n">
-        <v>220.55</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>224</v>
-      </c>
-      <c r="C125" t="n">
-        <v>222</v>
-      </c>
-      <c r="D125" t="n">
-        <v>224</v>
-      </c>
-      <c r="E125" t="n">
-        <v>221</v>
-      </c>
-      <c r="F125" t="n">
-        <v>708.9091</v>
-      </c>
-      <c r="G125" t="n">
-        <v>220.6166666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>220</v>
-      </c>
-      <c r="C126" t="n">
-        <v>220</v>
-      </c>
-      <c r="D126" t="n">
-        <v>220</v>
-      </c>
-      <c r="E126" t="n">
-        <v>220</v>
-      </c>
-      <c r="F126" t="n">
-        <v>849.3318</v>
-      </c>
-      <c r="G126" t="n">
-        <v>220.6333333333333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>219</v>
-      </c>
-      <c r="C127" t="n">
-        <v>218</v>
-      </c>
-      <c r="D127" t="n">
-        <v>219</v>
-      </c>
-      <c r="E127" t="n">
-        <v>218</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3204.7888</v>
-      </c>
-      <c r="G127" t="n">
-        <v>220.6666666666667</v>
-      </c>
-      <c r="H127" t="n">
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
